--- a/test_case_report/sprint_39.xlsx
+++ b/test_case_report/sprint_39.xlsx
@@ -1,32 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282093CC-BF17-4CC5-88A2-145EC8D6CA34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BE9D52-7E39-4D1E-9673-43DBEBB22814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
+    <t>Spint( 39) - Day 1 - Test Case Summary</t>
+  </si>
+  <si>
     <t>Total  testcase Written</t>
   </si>
   <si>
@@ -34,9 +32,6 @@
   </si>
   <si>
     <t>Total Review</t>
-  </si>
-  <si>
-    <t>Spint( 39) - Day 1 - Test Case Summary</t>
   </si>
   <si>
     <t>Spint( 39) - Day 2 - Test Case Summary</t>
@@ -70,26 +65,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,41 +92,41 @@
       <sz val="14"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF9C5700"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -141,16 +136,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -164,6 +149,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -171,6 +168,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -188,80 +226,39 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Input" xfId="2" builtinId="20"/>
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -320,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -355,7 +352,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -530,11 +527,6 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -543,276 +535,289 @@
   <dimension ref="B2:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="18.75" customHeight="1">
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
+    <row r="3" spans="2:3" ht="37.5" customHeight="1">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>759</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
+    <row r="4" spans="2:3" ht="18.75">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
         <v>968</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
+    <row r="5" spans="2:3" ht="18.75">
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
         <v>636</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="18.75">
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="13" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="37.5">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="18.75">
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="18.75">
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="2:3" ht="18.75" customHeight="1">
       <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="24" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="37.5">
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="18.75">
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="18.75">
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="18.75">
       <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="30" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="37.5">
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="2:3" ht="18.75">
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="2:3" ht="18.75">
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="30" spans="2:3" ht="18.75">
       <c r="B30" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" ht="37.5">
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="2:3" ht="18.75">
+      <c r="B32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="2:3" ht="18.75">
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="36" spans="2:3" ht="18.75">
       <c r="B36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="7"/>
     </row>
-    <row r="37" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="42" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" ht="37.5">
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="2:3" ht="18.75">
+      <c r="B38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="2:3" ht="18.75">
+      <c r="B39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="42" spans="2:3" ht="18.75">
       <c r="B42" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="7"/>
     </row>
-    <row r="43" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="48" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" ht="37.5">
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="2:3" ht="18.75">
+      <c r="B44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="2:3" ht="18.75">
+      <c r="B45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="48" spans="2:3" ht="18.75">
       <c r="B48" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="7"/>
     </row>
-    <row r="49" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="54" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" ht="37.5">
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="2:3" ht="18.75">
+      <c r="B50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="2:3" ht="18.75">
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="5"/>
+    </row>
+    <row r="54" spans="2:3" ht="18.75">
       <c r="B54" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="61" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" ht="37.5">
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="2:3" ht="18.75">
+      <c r="B56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="2:3" ht="18.75">
+      <c r="B57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="5"/>
+    </row>
+    <row r="61" spans="2:3" ht="18.75">
       <c r="B61" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="3"/>
+    <row r="62" spans="2:3" ht="37.5">
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="2:3" ht="18.75">
+      <c r="B63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="2:3" ht="18.75">
+      <c r="B64" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/test_case_report/sprint_39.xlsx
+++ b/test_case_report/sprint_39.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BE9D52-7E39-4D1E-9673-43DBEBB22814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4880E4D-7817-48C5-8CB2-0C1D4BC80C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,13 +78,13 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -92,13 +92,13 @@
       <sz val="14"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,27 +106,27 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -646,19 +646,25 @@
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2">
+        <v>884</v>
+      </c>
     </row>
     <row r="26" spans="2:3" ht="18.75">
       <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="4">
+        <v>1115</v>
+      </c>
     </row>
     <row r="27" spans="2:3" ht="18.75">
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5">
+        <v>636</v>
+      </c>
     </row>
     <row r="30" spans="2:3" ht="18.75">
       <c r="B30" s="6" t="s">
@@ -806,16 +812,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/test_case_report/sprint_39.xlsx
+++ b/test_case_report/sprint_39.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4880E4D-7817-48C5-8CB2-0C1D4BC80C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EF48DD-DC21-4A61-9D82-EE7167FAE6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C64"/>
+  <dimension ref="B2:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -604,224 +604,222 @@
         <v>636</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15.75" customHeight="1"/>
-    <row r="14" spans="2:3" ht="15.75" customHeight="1"/>
-    <row r="16" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B16" s="6" t="s">
+    <row r="14" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="2:3" ht="37.5">
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="2:3" ht="37.5">
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
         <v>834</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="18.75">
-      <c r="B18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4">
+    <row r="16" spans="2:3" ht="18.75">
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
         <v>1055</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="18.75">
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5">
+    <row r="17" spans="2:3" ht="18.75">
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5">
         <v>636</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="18.75">
-      <c r="B24" s="6" t="s">
+    <row r="20" spans="2:3" ht="18.75">
+      <c r="B20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="2:3" ht="37.5">
-      <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="2:3" ht="37.5">
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
         <v>884</v>
       </c>
     </row>
+    <row r="22" spans="2:3" ht="18.75">
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="18.75">
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5">
+        <v>636</v>
+      </c>
+    </row>
     <row r="26" spans="2:3" ht="18.75">
-      <c r="B26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="18.75">
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="5">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="18.75">
-      <c r="B30" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="2:3" ht="37.5">
-      <c r="B31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="2:3" ht="37.5">
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="2:3" ht="18.75">
+      <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="2:3" ht="18.75">
+      <c r="B29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5"/>
     </row>
     <row r="32" spans="2:3" ht="18.75">
-      <c r="B32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="2:3" ht="18.75">
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="36" spans="2:3" ht="18.75">
-      <c r="B36" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="2:3" ht="37.5">
-      <c r="B37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="2:3" ht="37.5">
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="2:3" ht="18.75">
+      <c r="B34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="2:3" ht="18.75">
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5"/>
     </row>
     <row r="38" spans="2:3" ht="18.75">
-      <c r="B38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="2:3" ht="18.75">
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="42" spans="2:3" ht="18.75">
-      <c r="B42" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="2:3" ht="37.5">
-      <c r="B43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2"/>
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="2:3" ht="37.5">
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="2:3" ht="18.75">
+      <c r="B40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="2:3" ht="18.75">
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="5"/>
     </row>
     <row r="44" spans="2:3" ht="18.75">
-      <c r="B44" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="2:3" ht="18.75">
-      <c r="B45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="48" spans="2:3" ht="18.75">
-      <c r="B48" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="2:3" ht="37.5">
-      <c r="B49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2"/>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="2:3" ht="37.5">
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="2:3" ht="18.75">
+      <c r="B46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="2:3" ht="18.75">
+      <c r="B47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5"/>
     </row>
     <row r="50" spans="2:3" ht="18.75">
-      <c r="B50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="2:3" ht="18.75">
-      <c r="B51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="5"/>
-    </row>
-    <row r="54" spans="2:3" ht="18.75">
-      <c r="B54" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="7"/>
-    </row>
-    <row r="55" spans="2:3" ht="37.5">
-      <c r="B55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="2:3" ht="18.75">
-      <c r="B56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="4"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="2:3" ht="37.5">
+      <c r="B51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="2:3" ht="18.75">
+      <c r="B52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="2:3" ht="18.75">
+      <c r="B53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="5"/>
     </row>
     <row r="57" spans="2:3" ht="18.75">
-      <c r="B57" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="5"/>
-    </row>
-    <row r="61" spans="2:3" ht="18.75">
-      <c r="B61" s="6" t="s">
+      <c r="B57" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="7"/>
-    </row>
-    <row r="62" spans="2:3" ht="37.5">
-      <c r="B62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="2:3" ht="18.75">
-      <c r="B63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="4"/>
-    </row>
-    <row r="64" spans="2:3" ht="18.75">
-      <c r="B64" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="5"/>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="2:3" ht="37.5">
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="2:3" ht="18.75">
+      <c r="B59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="2:3" ht="18.75">
+      <c r="B60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/test_case_report/sprint_39.xlsx
+++ b/test_case_report/sprint_39.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EF48DD-DC21-4A61-9D82-EE7167FAE6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70F423C-EF39-452A-A35C-60DF35591372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -674,19 +674,25 @@
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2">
+        <v>912</v>
+      </c>
     </row>
     <row r="28" spans="2:3" ht="18.75">
       <c r="B28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <v>1115</v>
+      </c>
     </row>
     <row r="29" spans="2:3" ht="18.75">
       <c r="B29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5">
+        <v>636</v>
+      </c>
     </row>
     <row r="32" spans="2:3" ht="18.75">
       <c r="B32" s="6" t="s">
@@ -810,16 +816,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/test_case_report/sprint_39.xlsx
+++ b/test_case_report/sprint_39.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70F423C-EF39-452A-A35C-60DF35591372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716EE07C-94DD-4EBB-968C-F95C3D2502E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="2">
-        <v>912</v>
+        <v>920</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="18.75">
@@ -704,19 +704,25 @@
       <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2">
+        <v>948</v>
+      </c>
     </row>
     <row r="34" spans="2:3" ht="18.75">
       <c r="B34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="C34" s="4">
+        <v>1172</v>
+      </c>
     </row>
     <row r="35" spans="2:3" ht="18.75">
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="5">
+        <v>636</v>
+      </c>
     </row>
     <row r="38" spans="2:3" ht="18.75">
       <c r="B38" s="6" t="s">
@@ -728,19 +734,25 @@
       <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2">
+        <v>983</v>
+      </c>
     </row>
     <row r="40" spans="2:3" ht="18.75">
       <c r="B40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="4">
+        <v>1222</v>
+      </c>
     </row>
     <row r="41" spans="2:3" ht="18.75">
       <c r="B41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="5">
+        <v>686</v>
+      </c>
     </row>
     <row r="44" spans="2:3" ht="18.75">
       <c r="B44" s="6" t="s">

--- a/test_case_report/sprint_39.xlsx
+++ b/test_case_report/sprint_39.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716EE07C-94DD-4EBB-968C-F95C3D2502E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68F49F0-C520-4717-BBCF-3DA928AF4599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="18.75">
@@ -764,19 +764,25 @@
       <c r="B45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2">
+        <v>1012</v>
+      </c>
     </row>
     <row r="46" spans="2:3" ht="18.75">
       <c r="B46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="4"/>
+      <c r="C46" s="4">
+        <v>1243</v>
+      </c>
     </row>
     <row r="47" spans="2:3" ht="18.75">
       <c r="B47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="5">
+        <v>704</v>
+      </c>
     </row>
     <row r="50" spans="2:3" ht="18.75">
       <c r="B50" s="6" t="s">

--- a/test_case_report/sprint_39.xlsx
+++ b/test_case_report/sprint_39.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68F49F0-C520-4717-BBCF-3DA928AF4599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD15532-A052-4621-A397-5912E484E750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -794,19 +794,25 @@
       <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2">
+        <v>1070</v>
+      </c>
     </row>
     <row r="52" spans="2:3" ht="18.75">
       <c r="B52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="4"/>
+      <c r="C52" s="4">
+        <v>1243</v>
+      </c>
     </row>
     <row r="53" spans="2:3" ht="18.75">
       <c r="B53" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="5"/>
+      <c r="C53" s="5">
+        <v>704</v>
+      </c>
     </row>
     <row r="57" spans="2:3" ht="18.75">
       <c r="B57" s="6" t="s">
@@ -834,16 +840,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B57:C57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/test_case_report/sprint_39.xlsx
+++ b/test_case_report/sprint_39.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD15532-A052-4621-A397-5912E484E750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F439FE-6C92-427A-A300-8BC77AC0F43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
   <si>
     <t>Spint( 39) - Day 1 - Test Case Summary</t>
   </si>
@@ -59,6 +59,22 @@
   </si>
   <si>
     <t>Spint( 39) - Day 10 - Test Case Summary</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Holiday
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>previous(800)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -232,7 +248,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -253,6 +269,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -534,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -820,11 +839,13 @@
       </c>
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="2:3" ht="37.5">
+    <row r="58" spans="2:3" ht="42" customHeight="1">
       <c r="B58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="59" spans="2:3" ht="18.75">
       <c r="B59" s="3" t="s">
